--- a/docs/data/packages.xlsx
+++ b/docs/data/packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\intro-r-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C19A85-12E0-4A53-9682-40397D74EA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B88A2-14AA-4FF7-8C1F-2475440982D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,69 +28,21 @@
     <t>Description</t>
   </si>
   <si>
-    <t>tidyverse</t>
-  </si>
-  <si>
     <t>Collection of packages designed for data analysis. The packages are designed to work smoothly together</t>
   </si>
   <si>
-    <t>dplyr</t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
     <t>Part of the tidyverse. Package for data manipulation: filtering, selecting and arranging data, summarizing data (e.g. calculating summaries by group), …</t>
   </si>
   <si>
-    <t>readr</t>
-  </si>
-  <si>
     <t>Part of the tidyverse. Package for data import and export (csv, txt, other delimited files)</t>
   </si>
   <si>
-    <t>ggplot2</t>
-  </si>
-  <si>
-    <t>tidyr</t>
-  </si>
-  <si>
-    <t>stringr</t>
-  </si>
-  <si>
-    <t>lubridate</t>
-  </si>
-  <si>
-    <t>data.table</t>
-  </si>
-  <si>
-    <t>rmarkdown</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forcats</t>
-  </si>
-  <si>
     <t>Part of the tidyverse. Data visualization</t>
   </si>
   <si>
-    <t>ggsci</t>
-  </si>
-  <si>
-    <t>ggthemes</t>
-  </si>
-  <si>
-    <t>usethis</t>
-  </si>
-  <si>
-    <t>styler</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
     <t>Makes it easy to work with dates and times: convert strings to date time objects, calculate with times (intervals, periods, …) and plot time series</t>
   </si>
   <si>
@@ -218,6 +170,54 @@
   </si>
   <si>
     <t>[website](https://www.tidyverse.org/), [learning resources](https://www.tidyverse.org/learn/)</t>
+  </si>
+  <si>
+    <t>`tidyverse`</t>
+  </si>
+  <si>
+    <t>`dplyr`</t>
+  </si>
+  <si>
+    <t>`readr`</t>
+  </si>
+  <si>
+    <t>`ggplot2`</t>
+  </si>
+  <si>
+    <t>`tidyr`</t>
+  </si>
+  <si>
+    <t>`stringr`</t>
+  </si>
+  <si>
+    <t>`lubridate`</t>
+  </si>
+  <si>
+    <t>`forcats`</t>
+  </si>
+  <si>
+    <t>`data.table`</t>
+  </si>
+  <si>
+    <t>`collapse`</t>
+  </si>
+  <si>
+    <t>`rmarkdown`</t>
+  </si>
+  <si>
+    <t>`ggsci`</t>
+  </si>
+  <si>
+    <t>`ggthemes`</t>
+  </si>
+  <si>
+    <t>`usethis`</t>
+  </si>
+  <si>
+    <t>`styler`</t>
+  </si>
+  <si>
+    <t>`here`</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,237 +1093,237 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/packages.xlsx
+++ b/docs/data/packages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\intro-r-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B88A2-14AA-4FF7-8C1F-2475440982D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E2297-1F75-4B65-B64B-ACB4E1BD9F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Package</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>`here`</t>
+  </si>
+  <si>
+    <t>`readxl`</t>
+  </si>
+  <si>
+    <t>data import and export</t>
+  </si>
+  <si>
+    <t>Functions to import and export excel files from multiple sheets into R as tibbles</t>
+  </si>
+  <si>
+    <t>[package documentation](https://www.rdocumentation.org/packages/readxl/versions/1.3.1)</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,192 +1156,206 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://dplyr.tidyverse.org/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://github.com/rstudio/cheatsheets/raw/master/lubridate.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId2" display="https://github.com/rstudio/cheatsheets/raw/master/lubridate.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/packages.xlsx
+++ b/docs/data/packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\intro-r-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E2297-1F75-4B65-B64B-ACB4E1BD9F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E9931-7209-4B03-8A5B-5802FE64AFDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Package</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>[package documentation](https://www.rdocumentation.org/packages/readxl/versions/1.3.1)</t>
+  </si>
+  <si>
+    <t>`patchwork`</t>
+  </si>
+  <si>
+    <t>data visualization</t>
+  </si>
+  <si>
+    <t>Easy syntax for combining multiple plots into one. Easy control of plot layout, common legends, plot annotations and labels</t>
+  </si>
+  <si>
+    <t>[website with different articles to get started](https://patchwork.data-imaginist.com/)</t>
   </si>
 </sst>
 </file>
@@ -1086,21 +1098,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -1170,7 +1182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1184,178 +1196,192 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://dplyr.tidyverse.org/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D9" r:id="rId2" display="https://github.com/rstudio/cheatsheets/raw/master/lubridate.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://github.com/rstudio/cheatsheets/raw/master/lubridate.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/packages.xlsx
+++ b/docs/data/packages.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\intro-r-data-analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\rmarkdown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E9931-7209-4B03-8A5B-5802FE64AFDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF27B46-D5F3-480E-9B7F-EE1DF38E17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35730" yWindow="240" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Package</t>
   </si>
@@ -28,220 +40,105 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Collection of packages designed for data analysis. The packages are designed to work smoothly together</t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
-    <t>Part of the tidyverse. Package for data manipulation: filtering, selecting and arranging data, summarizing data (e.g. calculating summaries by group), …</t>
-  </si>
-  <si>
-    <t>Part of the tidyverse. Package for data import and export (csv, txt, other delimited files)</t>
-  </si>
-  <si>
-    <t>Part of the tidyverse. Data visualization</t>
-  </si>
-  <si>
-    <t>Makes it easy to work with dates and times: convert strings to date time objects, calculate with times (intervals, periods, …) and plot time series</t>
-  </si>
-  <si>
-    <t>[cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/lubridate.pdf), [website](http://lubridate.tidyverse.org/)</t>
-  </si>
-  <si>
-    <t>[website](http://stringr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/strings.pdf)</t>
-  </si>
-  <si>
-    <t>Part of the tidyverse. Toolkit for working with strings. String manipulation: extracting strings, substrings, find patterns in strings, replace patterns in strings, …</t>
-  </si>
-  <si>
-    <t>Part of the tidyverse. Transforming tables to bring them in a tidy format for further analysis</t>
-  </si>
-  <si>
-    <t>[website](http://readr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-import.pdf)</t>
-  </si>
-  <si>
-    <t>[website](http://tidyr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-import.pdf)</t>
-  </si>
-  <si>
-    <t>[website](https://dplyr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-transformation.pdf)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactive and reproducible documents with R (pdf, word, html output). </t>
-  </si>
-  <si>
-    <t>[website](https://ggplot2.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-visualization-2.1.pdf)</t>
-  </si>
-  <si>
-    <t>[R Markdown - The definitive guide (book)](https://bookdown.org/yihui/rmarkdown/), [reference guide](https://www.rstudio.com/wp-content/uploads/2015/03/rmarkdown-reference.pdf),  [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/rmarkdown-2.0.pdf)</t>
-  </si>
-  <si>
-    <t>Packag for fast data manipulation. Well integrated with dplyr and data.table. Provides fast functions for data transformation, aggregation, linear models, statistical functions, grouping, … Have a look at it if you have large data sets and your data operations take a long time</t>
-  </si>
-  <si>
-    <t>[package on github](https://sebkrantz.github.io/collapse/), [cheatsheet](https://raw.githubusercontent.com/rstudio/cheatsheets/master/collapse.pdf)</t>
-  </si>
-  <si>
-    <t>Extremely fast and memory efficient data transofmrations in R. The package uses a different syntax from base R and the tidyverse. However, data.tables are also data frames so you can use them either with data.table syntax or with base R/tidyverse syntax</t>
-  </si>
-  <si>
-    <t>[website](https://github.com/Rdatatable/data.table/wiki/Getting-started), [cheatsheet](https://raw.githubusercontent.com/rstudio/cheatsheets/master/datatable.pdf)</t>
-  </si>
-  <si>
     <t>Keywords</t>
   </si>
   <si>
-    <t>tidyverse, data analysis</t>
-  </si>
-  <si>
-    <t>tidyverse, data manipulation</t>
-  </si>
-  <si>
-    <t>tidyverse, data import and export</t>
-  </si>
-  <si>
-    <t>tidyverse, data visualization</t>
-  </si>
-  <si>
-    <t>tidyverse, data cleaning</t>
-  </si>
-  <si>
-    <t>tidyverse, string manipulation</t>
-  </si>
-  <si>
-    <t>dates and times</t>
-  </si>
-  <si>
-    <t>fast data analysis, big data</t>
-  </si>
-  <si>
-    <t>reports, markdown, documents</t>
-  </si>
-  <si>
-    <t>colors, data visualization</t>
-  </si>
-  <si>
-    <t>colors, themes, data visualizations</t>
-  </si>
-  <si>
-    <t>utility</t>
-  </si>
-  <si>
-    <t>Provides additional color scales to ggplot</t>
-  </si>
-  <si>
-    <t>Provides additional color scales and themes to ggplot</t>
-  </si>
-  <si>
-    <t>utility, workflow</t>
-  </si>
-  <si>
-    <t>Provides useful utility functions around R and Rstudio workflows: project setup, git, github, licenses, package development, …</t>
-  </si>
-  <si>
-    <t>[website](https://usethis.r-lib.org/)</t>
-  </si>
-  <si>
-    <t>[website](https://nanx.me/ggsci/)</t>
-  </si>
-  <si>
-    <t>[theme gallery](https://yutannihilation.github.io/allYourFigureAreBelongToUs/ggthemes/)</t>
-  </si>
-  <si>
-    <t>[website](https://styler.r-lib.org/)</t>
-  </si>
-  <si>
-    <t>Automatically format your code according to the tidyverse style guide. This ensures that your coding style follows good practice</t>
-  </si>
-  <si>
-    <t>Makes file referencing and relative paths easy</t>
-  </si>
-  <si>
-    <t>[website](https://here.r-lib.org/)</t>
-  </si>
-  <si>
-    <t>Part of the tidyverse. Working with factors (categorical data types). Renaming, reordering, summarizing categories, …</t>
-  </si>
-  <si>
-    <t>[website](https://forcats.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/factors.pdf)</t>
-  </si>
-  <si>
-    <t>factors, categorical variables</t>
-  </si>
-  <si>
-    <t>[website](https://www.tidyverse.org/), [learning resources](https://www.tidyverse.org/learn/)</t>
-  </si>
-  <si>
-    <t>`tidyverse`</t>
-  </si>
-  <si>
-    <t>`dplyr`</t>
-  </si>
-  <si>
-    <t>`readr`</t>
-  </si>
-  <si>
-    <t>`ggplot2`</t>
-  </si>
-  <si>
-    <t>`tidyr`</t>
-  </si>
-  <si>
-    <t>`stringr`</t>
-  </si>
-  <si>
-    <t>`lubridate`</t>
-  </si>
-  <si>
-    <t>`forcats`</t>
-  </si>
-  <si>
-    <t>`data.table`</t>
-  </si>
-  <si>
-    <t>`collapse`</t>
-  </si>
-  <si>
-    <t>`rmarkdown`</t>
-  </si>
-  <si>
-    <t>`ggsci`</t>
-  </si>
-  <si>
-    <t>`ggthemes`</t>
-  </si>
-  <si>
-    <t>`usethis`</t>
-  </si>
-  <si>
-    <t>`styler`</t>
-  </si>
-  <si>
-    <t>`here`</t>
-  </si>
-  <si>
-    <t>`readxl`</t>
-  </si>
-  <si>
-    <t>data import and export</t>
-  </si>
-  <si>
-    <t>Functions to import and export excel files from multiple sheets into R as tibbles</t>
-  </si>
-  <si>
-    <t>[package documentation](https://www.rdocumentation.org/packages/readxl/versions/1.3.1)</t>
-  </si>
-  <si>
-    <t>`patchwork`</t>
-  </si>
-  <si>
-    <t>data visualization</t>
-  </si>
-  <si>
-    <t>Easy syntax for combining multiple plots into one. Easy control of plot layout, common legends, plot annotations and labels</t>
-  </si>
-  <si>
-    <t>[website with different articles to get started](https://patchwork.data-imaginist.com/)</t>
+    <t>`xaringan`</t>
+  </si>
+  <si>
+    <t>Presenation</t>
+  </si>
+  <si>
+    <t>Provides functionality to create nice html presentations, also provides some template documents</t>
+  </si>
+  <si>
+    <t>`rticles`</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Provides templates for different journal articles</t>
+  </si>
+  <si>
+    <t>[website](https://davidgohel.github.io/officedown/)</t>
+  </si>
+  <si>
+    <t>`officedown`</t>
+  </si>
+  <si>
+    <t>Provides functionality for formatting Microsoft office documents in Rmarkdown</t>
+  </si>
+  <si>
+    <t>Microsoft office</t>
+  </si>
+  <si>
+    <t>`bookdown`</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>[website](https://bookdown.org/)</t>
+  </si>
+  <si>
+    <t>Functionality for authoring books such as the "R markdown cookbook". Also provides functionality for cross referencing sections, figures and tables in the text</t>
+  </si>
+  <si>
+    <t>`kableExtra`</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>[overview website](https://haozhu233.github.io/kableExtra/)
+[html tables](https://haozhu233.github.io/kableExtra/awesome_table_in_html.html)</t>
+  </si>
+  <si>
+    <t>`plotly`</t>
+  </si>
+  <si>
+    <t>Interactive graphs</t>
+  </si>
+  <si>
+    <t>Create interactive plots, turn ggplot objects into interactive plots for html output</t>
+  </si>
+  <si>
+    <t>[website](https://plotly.com/r/)</t>
+  </si>
+  <si>
+    <t>[Flextable book](https://ardata-fr.github.io/flextable-book/index.html)</t>
+  </si>
+  <si>
+    <t>`flextable`</t>
+  </si>
+  <si>
+    <t>Format tables for HTML, PDF and Office output, an alternative to `kableExtra` if you want to render a word or powerpoint document</t>
+  </si>
+  <si>
+    <t>Functions for formatting tables in a nice way for html and pdf</t>
+  </si>
+  <si>
+    <t>[Documentation as presentation](https://slides.yihui.org/xaringan/#1)
+[Documentation in R Markdown book](https://bookdown.org/yihui/rmarkdown/xaringan.html)</t>
+  </si>
+  <si>
+    <t>[website](https://pkgs.rstudio.com/rticles/)</t>
+  </si>
+  <si>
+    <t>`distill`</t>
+  </si>
+  <si>
+    <t>Websites</t>
+  </si>
+  <si>
+    <t>A package that allows for easy creation of Websites and Blogs using R Markdown</t>
+  </si>
+  <si>
+    <t>[website with tutorials](https://rstudio.github.io/distill/website.html)</t>
   </si>
 </sst>
 </file>
@@ -1098,291 +995,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://dplyr.tidyverse.org/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://github.com/rstudio/cheatsheets/raw/master/lubridate.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/data/packages.xlsx
+++ b/docs/data/packages.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\rmarkdown\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selina_User\Files_Selina\Repos\02_workshops\intro-r-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF27B46-D5F3-480E-9B7F-EE1DF38E17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E9931-7209-4B03-8A5B-5802FE64AFDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35730" yWindow="240" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Package</t>
   </si>
@@ -40,105 +28,220 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Collection of packages designed for data analysis. The packages are designed to work smoothly together</t>
+  </si>
+  <si>
     <t>Links</t>
   </si>
   <si>
+    <t>Part of the tidyverse. Package for data manipulation: filtering, selecting and arranging data, summarizing data (e.g. calculating summaries by group), …</t>
+  </si>
+  <si>
+    <t>Part of the tidyverse. Package for data import and export (csv, txt, other delimited files)</t>
+  </si>
+  <si>
+    <t>Part of the tidyverse. Data visualization</t>
+  </si>
+  <si>
+    <t>Makes it easy to work with dates and times: convert strings to date time objects, calculate with times (intervals, periods, …) and plot time series</t>
+  </si>
+  <si>
+    <t>[cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/lubridate.pdf), [website](http://lubridate.tidyverse.org/)</t>
+  </si>
+  <si>
+    <t>[website](http://stringr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/strings.pdf)</t>
+  </si>
+  <si>
+    <t>Part of the tidyverse. Toolkit for working with strings. String manipulation: extracting strings, substrings, find patterns in strings, replace patterns in strings, …</t>
+  </si>
+  <si>
+    <t>Part of the tidyverse. Transforming tables to bring them in a tidy format for further analysis</t>
+  </si>
+  <si>
+    <t>[website](http://readr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-import.pdf)</t>
+  </si>
+  <si>
+    <t>[website](http://tidyr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-import.pdf)</t>
+  </si>
+  <si>
+    <t>[website](https://dplyr.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-transformation.pdf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive and reproducible documents with R (pdf, word, html output). </t>
+  </si>
+  <si>
+    <t>[website](https://ggplot2.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/data-visualization-2.1.pdf)</t>
+  </si>
+  <si>
+    <t>[R Markdown - The definitive guide (book)](https://bookdown.org/yihui/rmarkdown/), [reference guide](https://www.rstudio.com/wp-content/uploads/2015/03/rmarkdown-reference.pdf),  [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/rmarkdown-2.0.pdf)</t>
+  </si>
+  <si>
+    <t>Packag for fast data manipulation. Well integrated with dplyr and data.table. Provides fast functions for data transformation, aggregation, linear models, statistical functions, grouping, … Have a look at it if you have large data sets and your data operations take a long time</t>
+  </si>
+  <si>
+    <t>[package on github](https://sebkrantz.github.io/collapse/), [cheatsheet](https://raw.githubusercontent.com/rstudio/cheatsheets/master/collapse.pdf)</t>
+  </si>
+  <si>
+    <t>Extremely fast and memory efficient data transofmrations in R. The package uses a different syntax from base R and the tidyverse. However, data.tables are also data frames so you can use them either with data.table syntax or with base R/tidyverse syntax</t>
+  </si>
+  <si>
+    <t>[website](https://github.com/Rdatatable/data.table/wiki/Getting-started), [cheatsheet](https://raw.githubusercontent.com/rstudio/cheatsheets/master/datatable.pdf)</t>
+  </si>
+  <si>
     <t>Keywords</t>
   </si>
   <si>
-    <t>`xaringan`</t>
-  </si>
-  <si>
-    <t>Presenation</t>
-  </si>
-  <si>
-    <t>Provides functionality to create nice html presentations, also provides some template documents</t>
-  </si>
-  <si>
-    <t>`rticles`</t>
-  </si>
-  <si>
-    <t>Templates</t>
-  </si>
-  <si>
-    <t>Provides templates for different journal articles</t>
-  </si>
-  <si>
-    <t>[website](https://davidgohel.github.io/officedown/)</t>
-  </si>
-  <si>
-    <t>`officedown`</t>
-  </si>
-  <si>
-    <t>Provides functionality for formatting Microsoft office documents in Rmarkdown</t>
-  </si>
-  <si>
-    <t>Microsoft office</t>
-  </si>
-  <si>
-    <t>`bookdown`</t>
-  </si>
-  <si>
-    <t>Books</t>
-  </si>
-  <si>
-    <t>[website](https://bookdown.org/)</t>
-  </si>
-  <si>
-    <t>Functionality for authoring books such as the "R markdown cookbook". Also provides functionality for cross referencing sections, figures and tables in the text</t>
-  </si>
-  <si>
-    <t>`kableExtra`</t>
-  </si>
-  <si>
-    <t>Tables</t>
-  </si>
-  <si>
-    <t>[overview website](https://haozhu233.github.io/kableExtra/)
-[html tables](https://haozhu233.github.io/kableExtra/awesome_table_in_html.html)</t>
-  </si>
-  <si>
-    <t>`plotly`</t>
-  </si>
-  <si>
-    <t>Interactive graphs</t>
-  </si>
-  <si>
-    <t>Create interactive plots, turn ggplot objects into interactive plots for html output</t>
-  </si>
-  <si>
-    <t>[website](https://plotly.com/r/)</t>
-  </si>
-  <si>
-    <t>[Flextable book](https://ardata-fr.github.io/flextable-book/index.html)</t>
-  </si>
-  <si>
-    <t>`flextable`</t>
-  </si>
-  <si>
-    <t>Format tables for HTML, PDF and Office output, an alternative to `kableExtra` if you want to render a word or powerpoint document</t>
-  </si>
-  <si>
-    <t>Functions for formatting tables in a nice way for html and pdf</t>
-  </si>
-  <si>
-    <t>[Documentation as presentation](https://slides.yihui.org/xaringan/#1)
-[Documentation in R Markdown book](https://bookdown.org/yihui/rmarkdown/xaringan.html)</t>
-  </si>
-  <si>
-    <t>[website](https://pkgs.rstudio.com/rticles/)</t>
-  </si>
-  <si>
-    <t>`distill`</t>
-  </si>
-  <si>
-    <t>Websites</t>
-  </si>
-  <si>
-    <t>A package that allows for easy creation of Websites and Blogs using R Markdown</t>
-  </si>
-  <si>
-    <t>[website with tutorials](https://rstudio.github.io/distill/website.html)</t>
+    <t>tidyverse, data analysis</t>
+  </si>
+  <si>
+    <t>tidyverse, data manipulation</t>
+  </si>
+  <si>
+    <t>tidyverse, data import and export</t>
+  </si>
+  <si>
+    <t>tidyverse, data visualization</t>
+  </si>
+  <si>
+    <t>tidyverse, data cleaning</t>
+  </si>
+  <si>
+    <t>tidyverse, string manipulation</t>
+  </si>
+  <si>
+    <t>dates and times</t>
+  </si>
+  <si>
+    <t>fast data analysis, big data</t>
+  </si>
+  <si>
+    <t>reports, markdown, documents</t>
+  </si>
+  <si>
+    <t>colors, data visualization</t>
+  </si>
+  <si>
+    <t>colors, themes, data visualizations</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>Provides additional color scales to ggplot</t>
+  </si>
+  <si>
+    <t>Provides additional color scales and themes to ggplot</t>
+  </si>
+  <si>
+    <t>utility, workflow</t>
+  </si>
+  <si>
+    <t>Provides useful utility functions around R and Rstudio workflows: project setup, git, github, licenses, package development, …</t>
+  </si>
+  <si>
+    <t>[website](https://usethis.r-lib.org/)</t>
+  </si>
+  <si>
+    <t>[website](https://nanx.me/ggsci/)</t>
+  </si>
+  <si>
+    <t>[theme gallery](https://yutannihilation.github.io/allYourFigureAreBelongToUs/ggthemes/)</t>
+  </si>
+  <si>
+    <t>[website](https://styler.r-lib.org/)</t>
+  </si>
+  <si>
+    <t>Automatically format your code according to the tidyverse style guide. This ensures that your coding style follows good practice</t>
+  </si>
+  <si>
+    <t>Makes file referencing and relative paths easy</t>
+  </si>
+  <si>
+    <t>[website](https://here.r-lib.org/)</t>
+  </si>
+  <si>
+    <t>Part of the tidyverse. Working with factors (categorical data types). Renaming, reordering, summarizing categories, …</t>
+  </si>
+  <si>
+    <t>[website](https://forcats.tidyverse.org/), [cheatsheet](https://github.com/rstudio/cheatsheets/raw/master/factors.pdf)</t>
+  </si>
+  <si>
+    <t>factors, categorical variables</t>
+  </si>
+  <si>
+    <t>[website](https://www.tidyverse.org/), [learning resources](https://www.tidyverse.org/learn/)</t>
+  </si>
+  <si>
+    <t>`tidyverse`</t>
+  </si>
+  <si>
+    <t>`dplyr`</t>
+  </si>
+  <si>
+    <t>`readr`</t>
+  </si>
+  <si>
+    <t>`ggplot2`</t>
+  </si>
+  <si>
+    <t>`tidyr`</t>
+  </si>
+  <si>
+    <t>`stringr`</t>
+  </si>
+  <si>
+    <t>`lubridate`</t>
+  </si>
+  <si>
+    <t>`forcats`</t>
+  </si>
+  <si>
+    <t>`data.table`</t>
+  </si>
+  <si>
+    <t>`collapse`</t>
+  </si>
+  <si>
+    <t>`rmarkdown`</t>
+  </si>
+  <si>
+    <t>`ggsci`</t>
+  </si>
+  <si>
+    <t>`ggthemes`</t>
+  </si>
+  <si>
+    <t>`usethis`</t>
+  </si>
+  <si>
+    <t>`styler`</t>
+  </si>
+  <si>
+    <t>`here`</t>
+  </si>
+  <si>
+    <t>`readxl`</t>
+  </si>
+  <si>
+    <t>data import and export</t>
+  </si>
+  <si>
+    <t>Functions to import and export excel files from multiple sheets into R as tibbles</t>
+  </si>
+  <si>
+    <t>[package documentation](https://www.rdocumentation.org/packages/readxl/versions/1.3.1)</t>
+  </si>
+  <si>
+    <t>`patchwork`</t>
+  </si>
+  <si>
+    <t>data visualization</t>
+  </si>
+  <si>
+    <t>Easy syntax for combining multiple plots into one. Easy control of plot layout, common legends, plot annotations and labels</t>
+  </si>
+  <si>
+    <t>[website with different articles to get started](https://patchwork.data-imaginist.com/)</t>
   </si>
 </sst>
 </file>
@@ -995,150 +1098,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://dplyr.tidyverse.org/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://github.com/rstudio/cheatsheets/raw/master/lubridate.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>